--- a/CTROReporting/CTROReporting/Templates/Turnaround Template.xlsx
+++ b/CTROReporting/CTROReporting/Templates/Turnaround Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\CSharp\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A6CCD7-E25B-4DCF-9906-F3D822B43D1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032AA7B-6E5F-4910-B1B4-42CC09ED9A16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="3" r:id="rId1"/>
@@ -521,13 +521,13 @@
     <t>CTEP ID</t>
   </si>
   <si>
-    <t>Current Trial Status</t>
+    <t>Study Protocol Type</t>
   </si>
   <si>
-    <t>Current Trial Status Date</t>
+    <t>Trial Status</t>
   </si>
   <si>
-    <t>Study Protocol Type</t>
+    <t>Trial Status Date</t>
   </si>
 </sst>
 </file>
@@ -637,92 +637,24 @@
   </cellStyles>
   <dxfs count="78">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -784,6 +716,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -811,14 +747,84 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -900,6 +906,10 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -926,16 +936,6 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -950,17 +950,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069B2D6E-97E2-4034-96EB-F9B47A15613B}" name="Table1" displayName="Table1" ref="A1:V3" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069B2D6E-97E2-4034-96EB-F9B47A15613B}" name="Table1" displayName="Table1" ref="A1:V3" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:V3" xr:uid="{094CAE04-5A7F-4C7B-B165-655B3F1BF5B7}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D9FFE344-55BA-4986-87B9-322B8292E3D5}" name="Trial ID" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{89AE202B-0090-43E5-AC64-68D4E807D399}" name="NCT ID" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{43F79B66-7863-4EA4-98AA-A5D5E54CF8CD}" name="CTEP ID" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{B3C992D4-F8A5-4CEA-B2CE-6F54F9ECF3B6}" name="DCP ID" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{9B3FACA8-2CF6-43BB-95E1-58762F6C978E}" name="Trial Type" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{4D7DE8A0-6F4F-44D4-989E-E42493E1A0CF}" name="Submission#" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{C981032A-FF05-4332-9C7A-F2FF934A480D}" name="Current Trial Status" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{F9F8FA76-C27A-44DC-BAF6-704CE0B87DB5}" name="Current Trial Status Date" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D9FFE344-55BA-4986-87B9-322B8292E3D5}" name="Trial ID" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{89AE202B-0090-43E5-AC64-68D4E807D399}" name="NCT ID" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{43F79B66-7863-4EA4-98AA-A5D5E54CF8CD}" name="CTEP ID" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{B3C992D4-F8A5-4CEA-B2CE-6F54F9ECF3B6}" name="DCP ID" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{9B3FACA8-2CF6-43BB-95E1-58762F6C978E}" name="Trial Type" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{4D7DE8A0-6F4F-44D4-989E-E42493E1A0CF}" name="Submission#" dataDxfId="70"/>
+    <tableColumn id="7" xr3:uid="{C981032A-FF05-4332-9C7A-F2FF934A480D}" name="Trial Status" dataDxfId="69"/>
+    <tableColumn id="8" xr3:uid="{F9F8FA76-C27A-44DC-BAF6-704CE0B87DB5}" name="Trial Status Date" dataDxfId="68"/>
     <tableColumn id="9" xr3:uid="{7FE9F8EE-6D4A-402A-8AA3-1294B07C3FC2}" name="Study Protocol Type" dataDxfId="67"/>
     <tableColumn id="10" xr3:uid="{18382617-192F-44F0-85B7-90BD4D995A69}" name="Summary 4 Funding Category" dataDxfId="66"/>
     <tableColumn id="11" xr3:uid="{12322135-759C-4179-8751-CBDCEC4668D9}" name="Lead Oganization" dataDxfId="65"/>
@@ -981,17 +981,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10A67C17-64BA-4313-9A2C-E2BAA7B06352}" name="Table2" displayName="Table2" ref="A1:V3" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10A67C17-64BA-4313-9A2C-E2BAA7B06352}" name="Table2" displayName="Table2" ref="A1:V3" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A1:V3" xr:uid="{8F2FAA9A-0C34-45C8-AAAE-B378B86D6FA0}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{C30A39F4-E65C-4128-BA82-EC316C2730BF}" name="Trial ID" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{B0AE60AC-6A6E-4E56-8C73-89C2774947EB}" name="NCT ID" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{CC88FAF4-D6C1-467A-8265-0520AF558E9F}" name="CTEP ID" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{53C70443-E6F2-4F79-A02C-F7A1436E5C0B}" name="DCP ID" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{EB0C3CDD-C848-4572-8A91-ED23B2E4E087}" name="Trial Type" dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{28B6CB3C-FBC2-4036-BBBE-B6FBBAED142E}" name="Submission#" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{D55D1FCF-084F-4526-94C5-54671A348164}" name="Current Trial Status" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{670F75DD-E1BF-4D65-886B-4C66CCBC31BD}" name="Current Trial Status Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C30A39F4-E65C-4128-BA82-EC316C2730BF}" name="Trial ID" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{B0AE60AC-6A6E-4E56-8C73-89C2774947EB}" name="NCT ID" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{CC88FAF4-D6C1-467A-8265-0520AF558E9F}" name="CTEP ID" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{53C70443-E6F2-4F79-A02C-F7A1436E5C0B}" name="DCP ID" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{EB0C3CDD-C848-4572-8A91-ED23B2E4E087}" name="Trial Type" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{28B6CB3C-FBC2-4036-BBBE-B6FBBAED142E}" name="Submission#" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{D55D1FCF-084F-4526-94C5-54671A348164}" name="Trial Status" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{670F75DD-E1BF-4D65-886B-4C66CCBC31BD}" name="Trial Status Date" dataDxfId="41"/>
     <tableColumn id="9" xr3:uid="{AD0EA4FC-C937-4FAA-AB4F-0681CE6BAE26}" name="Study Protocol Type" dataDxfId="40"/>
     <tableColumn id="10" xr3:uid="{950A5673-F462-4FF6-B88E-060A34C29306}" name="Summary 4 Funding Category" dataDxfId="39"/>
     <tableColumn id="11" xr3:uid="{7F3FE9D5-EA21-43DB-8CC2-5F40A7DB13DA}" name="Lead Oganization" dataDxfId="38"/>
@@ -1012,17 +1012,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table145" displayName="Table145" ref="A1:V3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table145" displayName="Table145" ref="A1:V3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:V3" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="23"/>
-    <tableColumn id="19" xr3:uid="{CFB1BB9B-E38B-4A49-A3D2-8DE92B3D1D2B}" name="NCT ID" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{DD3CDCA1-A77A-4ECA-90D2-A92DF9063424}" name="CTEP ID" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{C84E715D-7751-4D37-92B0-520B94DF8355}" name="DCP ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Trial Type" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Submission#" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{6A034042-18BF-4F43-A709-E96AB2D28422}" name="Current Trial Status" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{6C8ED7CF-6F6E-474E-AFB4-FCA68147A524}" name="Current Trial Status Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Trial ID" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{CFB1BB9B-E38B-4A49-A3D2-8DE92B3D1D2B}" name="NCT ID" dataDxfId="23"/>
+    <tableColumn id="18" xr3:uid="{DD3CDCA1-A77A-4ECA-90D2-A92DF9063424}" name="CTEP ID" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{C84E715D-7751-4D37-92B0-520B94DF8355}" name="DCP ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Trial Type" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Submission#" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{6A034042-18BF-4F43-A709-E96AB2D28422}" name="Trial Status" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{6C8ED7CF-6F6E-474E-AFB4-FCA68147A524}" name="Trial Status Date" dataDxfId="17"/>
     <tableColumn id="21" xr3:uid="{AFB92E36-A670-4A71-9E91-B02013BDDF58}" name="Study Protocol Type" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Summary 4 Funding Category" dataDxfId="15"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Lead Oganization" dataDxfId="14"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:Z1130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1384,13 +1384,13 @@
         <v>145</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>144</v>
@@ -4950,9 +4950,6 @@
     </row>
   </sheetData>
   <autoFilter ref="X1:Z1" xr:uid="{2937B8DA-0ED8-4B57-A828-8B5193634E2E}"/>
-  <conditionalFormatting sqref="A1:D3">
-    <cfRule type="duplicateValues" dxfId="77" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="90" r:id="rId1"/>
   <tableParts count="1">
@@ -9806,8 +9803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9849,13 +9846,13 @@
         <v>145</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>144</v>
@@ -13415,9 +13412,6 @@
     </row>
   </sheetData>
   <autoFilter ref="X1:Z1" xr:uid="{E5D14D8C-1CDD-4521-B5AB-4D3A0DEE018A}"/>
-  <conditionalFormatting sqref="A1:D3">
-    <cfRule type="duplicateValues" dxfId="50" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -13429,8 +13423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD1130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13464,13 +13458,13 @@
         <v>145</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>144</v>
@@ -17076,9 +17070,6 @@
     </row>
   </sheetData>
   <autoFilter ref="X1:Z1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <conditionalFormatting sqref="A1:D3">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
